--- a/Documents/Installations for seting up the project.xlsx
+++ b/Documents/Installations for seting up the project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Achtung Die Kurve\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BEA113E-72E6-46C1-9C34-3EC5014BF42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5AEC6A-C0A7-455F-AB52-A7B47C34726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7F38A0AF-AD99-4CEE-BD1E-7291BC946D37}"/>
   </bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB76FB0-C3BD-453F-848D-2C0D0B0D0B16}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -763,7 +763,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -862,7 +862,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -950,7 +950,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1059,7 +1059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
